--- a/biology/Zoologie/Danaus_genutia/Danaus_genutia.xlsx
+++ b/biology/Zoologie/Danaus_genutia/Danaus_genutia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monarque indien
-Danaus genutia ou Monarque indien[1] est une espèce de lépidoptères de la famille des Nymphalidae et de la sous-famille des Danainae.
+Danaus genutia ou Monarque indien est une espèce de lépidoptères de la famille des Nymphalidae et de la sous-famille des Danainae.
 C'est l'un des papillons les plus communs de l'Inde.
 </t>
         </is>
@@ -515,12 +527,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Imago
-C'est un grand papillon orange clair bordé et veiné de marron et à l'apex marron à taches blanches. Le verso des antérieures est identique orange bordé de marron orné de points blanc, celui des postérieures est marron clair veiné de foncé.
-Espèces ressemblantes
-Il peut être confondu avec Danaus chrysippus et Danaus plexippus dans leur aire de répartition commune.
-Premiers stades
-Les œufs sont jaune pâle. 
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon orange clair bordé et veiné de marron et à l'apex marron à taches blanches. Le verso des antérieures est identique orange bordé de marron orné de points blanc, celui des postérieures est marron clair veiné de foncé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Danaus_genutia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_genutia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Espèces ressemblantes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut être confondu avec Danaus chrysippus et Danaus plexippus dans leur aire de répartition commune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Danaus_genutia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_genutia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Premiers stades</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont jaune pâle. 
 La chenille présente un dos marron, des lignes latérales jaunes et un dos noir. Elle est toxique et les prédateurs s'en détournent.
 			œuf
 			chenille
@@ -529,64 +620,68 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Danaus_genutia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Danaus_genutia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Danaus_genutia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_genutia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En anglais, l'espèce est appelée Common Tiger, Indian Monarch ou encore Orange Tiger.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Danaus_genutia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Danaus_genutia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Danaus_genutia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_genutia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Funet[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Funet :
 Danaus genutia genutia — en Inde, Malaisie, Thaïlande, Indochine, Ceylan, Nicobar, Singapour, en Chine et à Taïwan.
 Danaus genutia alexis (Waterhouse et Lyell, 1914) — dans le nord-ouest de l'Australie.
 Danaus genutia conspicua Butler, 1866
@@ -604,73 +699,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Danaus_genutia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Danaus_genutia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol
-C'est un migrateur avéré[réf. souhaitée].
-Plantes-hôtes
-Les plantes-hôtes sont des Asclepias (Asclepias curassavica) et d'autres espèces dont Calotropis gigantea, Calotropis procera, Cynanchum langysuense, Cynanchum formosana, Cynanchum taiwanianum, Marsdenia tomentosa, Marsdenia tinctoria, Pergularia odoratissima, Raphistemma pulchellum, Raphistemma lemma, Metaplexis japonica, Ceropegia intermedia, Cynanchum dalhousiae, Cynanchum liukiuensis, Graphistemma pictum, Raphistemma pulchellum, Tylophora cissoides, Tylophora tanakae[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Danaus_genutia</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Danaus_genutia</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Distribution et biotopes</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Asie, de l'Afghanistan, l'Inde et la Chine jusqu'à l'Australie en passant par la Malaisie, Thaïlande, Indochine, Ceylan, Nicobar, Singapour, Taïwan, Timor, Nias, Sumatra, Java, Bali et Bornéo[2].
-On la trouve jusqu'à 500 mètres d'altitude[3]. Cette espèce vit dans les forêts de feuillus et les jachères proches des maisons.
-Une étude a montré que Danaus genutia privilégie quatre espèces de plantes nectarifères : Nerium oleander, Barbeleria cristata rosea, Crotalaria juncea et Bauhinia perpurea[4].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -692,12 +720,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pas de statut particulier[réf. nécessaire].
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un migrateur avéré[réf. souhaitée].
 </t>
         </is>
       </c>
@@ -723,12 +757,119 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes-hôtes sont des Asclepias (Asclepias curassavica) et d'autres espèces dont Calotropis gigantea, Calotropis procera, Cynanchum langysuense, Cynanchum formosana, Cynanchum taiwanianum, Marsdenia tomentosa, Marsdenia tinctoria, Pergularia odoratissima, Raphistemma pulchellum, Raphistemma lemma, Metaplexis japonica, Ceropegia intermedia, Cynanchum dalhousiae, Cynanchum liukiuensis, Graphistemma pictum, Raphistemma pulchellum, Tylophora cissoides, Tylophora tanakae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Danaus_genutia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_genutia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distribution et biotopes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Asie, de l'Afghanistan, l'Inde et la Chine jusqu'à l'Australie en passant par la Malaisie, Thaïlande, Indochine, Ceylan, Nicobar, Singapour, Taïwan, Timor, Nias, Sumatra, Java, Bali et Bornéo.
+On la trouve jusqu'à 500 mètres d'altitude. Cette espèce vit dans les forêts de feuillus et les jachères proches des maisons.
+Une étude a montré que Danaus genutia privilégie quatre espèces de plantes nectarifères : Nerium oleander, Barbeleria cristata rosea, Crotalaria juncea et Bauhinia perpurea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Danaus_genutia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_genutia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut particulier[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Danaus_genutia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_genutia</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La poste de Hong Kong et celle du Kampuchea ont chacune émis un timbre à l'effigie de Danaus genutia[5].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poste de Hong Kong et celle du Kampuchea ont chacune émis un timbre à l'effigie de Danaus genutia.
 </t>
         </is>
       </c>
